--- a/uploads/xlsx/Timetable SE Department (Fall-25 & Spring-26) Version-1.2-updated.xlsx
+++ b/uploads/xlsx/Timetable SE Department (Fall-25 & Spring-26) Version-1.2-updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring-26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zPythonStuff\Superior Academic Tool\uploads\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5D16D-9109-48F8-BE89-ECFD8D1A9763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F4AA3-4433-4E3E-9F83-5167FEFA804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Table" sheetId="1" r:id="rId1"/>
@@ -760,24 +760,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Software Re-Engineering 
-BSSE-8B
-Mr. Hammmad Ur Rehman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Re-Engineering 
-BSSE-8A
-Mr. Hammmad Ur Rehman </t>
-  </si>
-  <si>
     <t xml:space="preserve">Operations Research 
 BSSE-8B
 Mr. Hamza Hameed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Re-Engineering 
-BSSE-8C
-Mr. Hammmad Ur Rehman </t>
   </si>
   <si>
     <t xml:space="preserve">Technical &amp; Business Writing 
@@ -788,11 +773,6 @@
     <t xml:space="preserve">Operations Research 
 BSSE-8D
 Mr. Hamza Hameed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Re-Engineering 
-BSSE-8D
-Mr. Hammmad Ur Rehman </t>
   </si>
   <si>
     <t xml:space="preserve">Operations Research 
@@ -808,11 +788,6 @@
     <t>Technical &amp; Business Writing
 BSSE-8A
 Mr. Abdul Moiz</t>
-  </si>
-  <si>
-    <t>Operations Research  
-BSSE-8A
-Mr.Hamza Hameed</t>
   </si>
   <si>
     <t>Artificial Neural Networks
@@ -885,11 +860,6 @@
 Ms. Asma Abubakar 
 Mr. Hammad Ghulam Mustafa </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Data Analytics 
-BSDS-5A/BSDS-7A
-Mr.Usman Baig </t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to Data Science (Theory + Lab)
@@ -1130,11 +1100,6 @@
 Mr. Syed Zeeshan Hussain </t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Application Development (Lab)
-BSSE-5A
-Muhammad Abdullah </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mobile Application Development 
 BSSE-5A
 Mr. Muhammad Ahmad </t>
@@ -1173,11 +1138,6 @@
     <t xml:space="preserve">Programming for AI (Lab)
 BSAI-4B
 Mr. Rasikh Ali </t>
-  </si>
-  <si>
-    <t>Application of Information &amp; Communication Technology (Theory)
-BSSE-1A
-Dr. Hsfiz Muhammad Tayyab Khushi</t>
   </si>
   <si>
     <t xml:space="preserve">Programming for AI (Lab)
@@ -1520,26 +1480,6 @@
     <t>Lecture Room # 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Professional Practrices 
-BSSE-8D/BSAI-8A
-Mr.Umair Iftikhar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Practrices 
-BSSE-8A/BSDS-8A
-Mr.Umair Iftikhar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Practrices 
-BSSE-8B
-Mr.Umair Iftikhar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Practrices 
-BSSE-8C
-Mr.Umair Iftikhar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Social Entrepreneurship Program 
 BSSE-4D/BSSE-4E
 Ms. Rabia Aziz </t>
@@ -1642,12 +1582,6 @@
   </si>
   <si>
     <t>Computer Networks 
-BSSE-4C
-Mr.Najaf Ali
-(10:45 - 12:45)</t>
-  </si>
-  <si>
-    <t>Computer Networks 
 BSDS-4A
 Mr. Rafaqat Ali 
 (10:45 - 12:45)</t>
@@ -1681,6 +1615,72 @@
 BSAI-4C
 Mr. Rafaqat Ali 
 (02:50 - 04:50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Re-Engineering 
+BSSE-8A
+Mr. Hammad Ur Rehman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Re-Engineering 
+BSSE-8C
+Mr. Hammad Ur Rehman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Re-Engineering 
+BSSE-8D
+Mr. Hammad Ur Rehman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Re-Engineering 
+BSSE-8B
+Mr. Hammad Ur Rehman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Practrices 
+BSSE-8A/BSDS-8A
+Mr. Umair Iftikhar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Practrices 
+BSSE-8D/BSAI-8A
+Mr. Umair Iftikhar </t>
+  </si>
+  <si>
+    <t>Operations Research  
+BSSE-8A
+Mr. Hamza Hameed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data Analytics 
+BSDS-5A/BSDS-7A
+Mr. Usman Baig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Practrices 
+BSSE-8C
+Mr. Umair Iftikhar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Practrices 
+BSSE-8B
+Mr. Umair Iftikhar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Application Development (Lab)
+BSSE-5A
+Mr. Muhammad Abdullah </t>
+  </si>
+  <si>
+    <t>Application of Information &amp; Communication Technology (Theory)
+BSSE-1A
+Dr. Hafiz Muhammad Tayyab Khushi</t>
+  </si>
+  <si>
+    <t>Computer Networks 
+BSSE-4C
+Mr. Najaf Ali
+(10:45 - 12:45)</t>
   </si>
 </sst>
 </file>
@@ -4198,686 +4198,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4916,6 +4241,696 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4923,21 +4938,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5169,8 +5169,8 @@
   <dimension ref="A1:AB1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83:G83"/>
+      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H75" sqref="H75:H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5195,10 +5195,10 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="292"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="300"/>
       <c r="K1" s="103"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -5219,20 +5219,20 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
       <c r="K2" s="104"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -5253,18 +5253,18 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="295"/>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="238"/>
+      <c r="A3" s="304"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="297"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
       <c r="K3" s="105"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -5285,18 +5285,18 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="295"/>
-      <c r="B4" s="238"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
+      <c r="A4" s="304"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
       <c r="F4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="299"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="300"/>
-      <c r="J4" s="300"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
       <c r="K4" s="106"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -5318,10 +5318,10 @@
     </row>
     <row r="5" spans="1:28" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
-      <c r="B5" s="301" t="s">
+      <c r="B5" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="302"/>
+      <c r="C5" s="308"/>
       <c r="D5" s="50" t="s">
         <v>3</v>
       </c>
@@ -5397,23 +5397,23 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="385" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C7" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="388" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="169" t="s">
+      <c r="D7" s="379" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="173"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="381"/>
+      <c r="H7" s="377"/>
+      <c r="I7" s="378"/>
       <c r="J7" s="159"/>
       <c r="K7" s="160"/>
       <c r="L7" s="65"/>
@@ -5435,19 +5435,19 @@
       <c r="AB7" s="66"/>
     </row>
     <row r="8" spans="1:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189"/>
+      <c r="A8" s="386"/>
       <c r="B8" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="174" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="389"/>
+      <c r="D8" s="382" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="187"/>
+      <c r="E8" s="383"/>
+      <c r="F8" s="383"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="163"/>
       <c r="K8" s="164"/>
       <c r="L8" s="65"/>
@@ -5469,11 +5469,11 @@
       <c r="AB8" s="66"/>
     </row>
     <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
+      <c r="A9" s="386"/>
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="312" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="94" t="s">
@@ -5488,12 +5488,12 @@
       <c r="G9" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="178"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="228"/>
+      <c r="H9" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="194"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="353"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -5513,23 +5513,23 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="189"/>
+      <c r="A10" s="386"/>
       <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="239" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="240"/>
-      <c r="F10" s="243" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="244"/>
-      <c r="H10" s="210" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="211"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="359" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="360"/>
+      <c r="F10" s="361" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="201"/>
+      <c r="H10" s="191" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="192"/>
       <c r="J10" s="128"/>
       <c r="K10" s="108"/>
       <c r="L10" s="2"/>
@@ -5551,23 +5551,23 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="189"/>
+      <c r="A11" s="386"/>
       <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="307"/>
+      <c r="C11" s="313"/>
       <c r="D11" s="109"/>
       <c r="E11" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="191" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" s="192"/>
-      <c r="H11" s="210" t="s">
+      <c r="F11" s="390" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="391"/>
+      <c r="H11" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="364"/>
+      <c r="I11" s="209"/>
       <c r="J11" s="126"/>
       <c r="K11" s="85"/>
       <c r="L11" s="2"/>
@@ -5589,11 +5589,11 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="189"/>
+      <c r="A12" s="386"/>
       <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="303" t="s">
+      <c r="C12" s="309" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="135" t="s">
@@ -5609,12 +5609,12 @@
         <v>69</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="I12" s="226" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="226"/>
+        <v>266</v>
+      </c>
+      <c r="I12" s="199" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="199"/>
       <c r="K12" s="131"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -5635,25 +5635,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
+      <c r="A13" s="386"/>
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="378"/>
-      <c r="F13" s="186" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="187"/>
-      <c r="H13" s="186" t="s">
+      <c r="C13" s="310"/>
+      <c r="D13" s="280" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="317"/>
+      <c r="F13" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="198"/>
+      <c r="H13" s="197" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="275"/>
-      <c r="J13" s="283"/>
-      <c r="K13" s="318"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="288"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -5673,25 +5673,25 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
+      <c r="A14" s="386"/>
       <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="304"/>
-      <c r="D14" s="214" t="s">
+      <c r="C14" s="310"/>
+      <c r="D14" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="241"/>
-      <c r="F14" s="186" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="187"/>
-      <c r="H14" s="194" t="s">
-        <v>166</v>
-      </c>
-      <c r="I14" s="195"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="230"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="197" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="198"/>
+      <c r="H14" s="367" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="368"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="354"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -5711,23 +5711,23 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
+      <c r="A15" s="386"/>
       <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="304"/>
-      <c r="D15" s="219" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="244"/>
-      <c r="G15" s="242" t="s">
+      <c r="C15" s="310"/>
+      <c r="D15" s="200" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="201"/>
+      <c r="G15" s="352" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="242"/>
-      <c r="I15" s="360" t="s">
-        <v>258</v>
-      </c>
-      <c r="J15" s="215"/>
+      <c r="H15" s="352"/>
+      <c r="I15" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" s="189"/>
       <c r="K15" s="110"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5748,27 +5748,27 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="189"/>
+      <c r="A16" s="386"/>
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="304"/>
+      <c r="C16" s="310"/>
       <c r="D16" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="210" t="s">
+      <c r="E16" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="211"/>
+      <c r="F16" s="192"/>
       <c r="G16" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="209" t="s">
+      <c r="H16" s="293" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="178"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="255"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="342"/>
+      <c r="K16" s="366"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -5788,25 +5788,25 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
+      <c r="A17" s="386"/>
       <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="304"/>
-      <c r="D17" s="220" t="s">
+      <c r="C17" s="310"/>
+      <c r="D17" s="375" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="221"/>
-      <c r="F17" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="275"/>
-      <c r="H17" s="250" t="s">
+      <c r="E17" s="376"/>
+      <c r="F17" s="193" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="203"/>
+      <c r="H17" s="362" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="251"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="252"/>
+      <c r="I17" s="363"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="364"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -5826,27 +5826,27 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189"/>
+      <c r="A18" s="386"/>
       <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="214" t="s">
+      <c r="C18" s="310"/>
+      <c r="D18" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="215"/>
-      <c r="F18" s="210" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="211"/>
-      <c r="H18" s="210" t="s">
+      <c r="E18" s="189"/>
+      <c r="F18" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="192"/>
+      <c r="H18" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="211"/>
-      <c r="J18" s="308" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="236"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="314" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="215"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -5866,27 +5866,27 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="189"/>
+      <c r="A19" s="386"/>
       <c r="B19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="214" t="s">
+      <c r="C19" s="310"/>
+      <c r="D19" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="215"/>
-      <c r="F19" s="210" t="s">
+      <c r="E19" s="189"/>
+      <c r="F19" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="211"/>
-      <c r="H19" s="210" t="s">
+      <c r="G19" s="192"/>
+      <c r="H19" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="187"/>
-      <c r="J19" s="210" t="s">
-        <v>255</v>
-      </c>
-      <c r="K19" s="280"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="191" t="s">
+        <v>247</v>
+      </c>
+      <c r="K19" s="212"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5906,23 +5906,23 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="189"/>
+      <c r="A20" s="386"/>
       <c r="B20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="214" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="241"/>
-      <c r="F20" s="235" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" s="213"/>
-      <c r="H20" s="210" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="211"/>
+      <c r="C20" s="310"/>
+      <c r="D20" s="190" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="234"/>
+      <c r="F20" s="213" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="214"/>
+      <c r="H20" s="191" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20" s="192"/>
       <c r="J20" s="134"/>
       <c r="K20" s="142"/>
       <c r="L20" s="2"/>
@@ -5944,21 +5944,21 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="190"/>
+      <c r="A21" s="387"/>
       <c r="B21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="305"/>
-      <c r="D21" s="310" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="311"/>
-      <c r="F21" s="312" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="311"/>
-      <c r="H21" s="313"/>
-      <c r="I21" s="314"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="240" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="315"/>
+      <c r="F21" s="316" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="315"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="208"/>
       <c r="J21" s="102"/>
       <c r="K21" s="111"/>
       <c r="L21" s="2"/>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="22" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
-      <c r="B22" s="355" t="s">
+      <c r="B22" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="356"/>
+      <c r="C22" s="261"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -6012,7 +6012,7 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="245" t="s">
+      <c r="A23" s="392" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="75" t="s">
@@ -6062,21 +6062,21 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="246"/>
+      <c r="A24" s="393"/>
       <c r="B24" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="388" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="169" t="s">
+      <c r="D24" s="379" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
+      <c r="E24" s="380"/>
+      <c r="F24" s="380"/>
+      <c r="G24" s="381"/>
+      <c r="H24" s="377"/>
+      <c r="I24" s="378"/>
       <c r="J24" s="159"/>
       <c r="K24" s="160"/>
       <c r="L24" s="65"/>
@@ -6098,19 +6098,19 @@
       <c r="AB24" s="66"/>
     </row>
     <row r="25" spans="1:28" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="246"/>
+      <c r="A25" s="393"/>
       <c r="B25" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="174" t="s">
+      <c r="C25" s="389"/>
+      <c r="D25" s="382" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
+      <c r="E25" s="383"/>
+      <c r="F25" s="383"/>
+      <c r="G25" s="384"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="157"/>
       <c r="K25" s="158"/>
       <c r="L25" s="65"/>
@@ -6132,29 +6132,29 @@
       <c r="AB25" s="66"/>
     </row>
     <row r="26" spans="1:28" s="123" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="247"/>
+      <c r="A26" s="345"/>
       <c r="B26" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="207" t="s">
+      <c r="D26" s="254" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="238"/>
+      <c r="E26" s="251"/>
       <c r="F26" s="94" t="s">
         <v>75</v>
       </c>
       <c r="G26" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="205" t="s">
-        <v>220</v>
-      </c>
-      <c r="I26" s="206"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="254"/>
+      <c r="H26" s="230" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="338"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="365"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -6174,27 +6174,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="247"/>
+      <c r="A27" s="345"/>
       <c r="B27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="223"/>
-      <c r="D27" s="196" t="s">
+      <c r="C27" s="238"/>
+      <c r="D27" s="280" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="197"/>
+      <c r="E27" s="369"/>
       <c r="F27" s="125" t="s">
         <v>92</v>
       </c>
       <c r="G27" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="205" t="s">
-        <v>239</v>
-      </c>
-      <c r="I27" s="206"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="236"/>
+      <c r="H27" s="230" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" s="338"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="215"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -6214,25 +6214,25 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="247"/>
+      <c r="A28" s="345"/>
       <c r="B28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="224"/>
-      <c r="D28" s="219" t="s">
+      <c r="C28" s="239"/>
+      <c r="D28" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="219"/>
-      <c r="F28" s="193" t="s">
-        <v>269</v>
-      </c>
-      <c r="G28" s="193"/>
-      <c r="H28" s="226" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" s="226"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="263" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="263"/>
+      <c r="H28" s="199" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="199"/>
+      <c r="J28" s="371"/>
+      <c r="K28" s="372"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -6252,25 +6252,25 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="247"/>
+      <c r="A29" s="345"/>
       <c r="B29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="249" t="s">
+      <c r="C29" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="384" t="s">
-        <v>316</v>
-      </c>
-      <c r="E29" s="218"/>
-      <c r="F29" s="226" t="s">
+      <c r="D29" s="320" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="196"/>
+      <c r="F29" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226" t="s">
-        <v>296</v>
-      </c>
-      <c r="I29" s="217"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" s="206"/>
       <c r="J29" s="22"/>
       <c r="K29" s="82"/>
       <c r="L29" s="2"/>
@@ -6292,27 +6292,27 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="247"/>
+      <c r="A30" s="345"/>
       <c r="B30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="223"/>
-      <c r="D30" s="196" t="s">
+      <c r="C30" s="238"/>
+      <c r="D30" s="280" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="213"/>
-      <c r="F30" s="193" t="s">
+      <c r="E30" s="214"/>
+      <c r="F30" s="263" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="211"/>
-      <c r="H30" s="207" t="s">
-        <v>259</v>
-      </c>
-      <c r="I30" s="208"/>
-      <c r="J30" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="K30" s="236"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="254" t="s">
+        <v>251</v>
+      </c>
+      <c r="I30" s="374"/>
+      <c r="J30" s="213" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="215"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -6332,19 +6332,19 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="247"/>
+      <c r="A31" s="345"/>
       <c r="B31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="223"/>
-      <c r="D31" s="218" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="204"/>
-      <c r="F31" s="216" t="s">
+      <c r="C31" s="238"/>
+      <c r="D31" s="196" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="285"/>
+      <c r="F31" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="217"/>
+      <c r="G31" s="206"/>
       <c r="H31" s="22" t="s">
         <v>77</v>
       </c>
@@ -6372,26 +6372,26 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247"/>
+      <c r="A32" s="345"/>
       <c r="B32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="223"/>
-      <c r="D32" s="211" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="226"/>
-      <c r="F32" s="284" t="s">
+      <c r="C32" s="238"/>
+      <c r="D32" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="199"/>
+      <c r="F32" s="329" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="284"/>
+      <c r="G32" s="329"/>
       <c r="H32" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="209" t="s">
-        <v>284</v>
-      </c>
-      <c r="J32" s="275"/>
+      <c r="I32" s="293" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="203"/>
       <c r="K32" s="115"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -6412,27 +6412,27 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="247"/>
+      <c r="A33" s="345"/>
       <c r="B33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="223"/>
-      <c r="D33" s="211" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="210"/>
-      <c r="F33" s="216" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="217"/>
-      <c r="H33" s="226" t="s">
-        <v>229</v>
-      </c>
-      <c r="I33" s="226"/>
-      <c r="J33" s="211" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="324"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="192" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="191"/>
+      <c r="F33" s="328" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="206"/>
+      <c r="H33" s="199" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="199"/>
+      <c r="J33" s="192" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" s="271"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6452,27 +6452,27 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="247"/>
+      <c r="A34" s="345"/>
       <c r="B34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="238"/>
       <c r="D34" s="143" t="s">
         <v>132</v>
       </c>
       <c r="E34" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="198" t="s">
+      <c r="F34" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="199"/>
-      <c r="H34" s="285" t="s">
+      <c r="G34" s="370"/>
+      <c r="H34" s="330" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="198"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="203"/>
+      <c r="I34" s="331"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="373"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6492,25 +6492,25 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="247"/>
+      <c r="A35" s="345"/>
       <c r="B35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="238"/>
       <c r="D35" s="143" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="204" t="s">
-        <v>317</v>
-      </c>
-      <c r="G35" s="212"/>
-      <c r="H35" s="231" t="s">
-        <v>246</v>
-      </c>
-      <c r="I35" s="232"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="234"/>
+      <c r="F35" s="285" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" s="286"/>
+      <c r="H35" s="355" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="356"/>
+      <c r="J35" s="357"/>
+      <c r="K35" s="358"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6530,25 +6530,25 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="247"/>
+      <c r="A36" s="345"/>
       <c r="B36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="224"/>
-      <c r="D36" s="205" t="s">
+      <c r="C36" s="239"/>
+      <c r="D36" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="237" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="225"/>
-      <c r="H36" s="265" t="s">
-        <v>253</v>
-      </c>
-      <c r="I36" s="265"/>
-      <c r="J36" s="263"/>
-      <c r="K36" s="264"/>
+      <c r="E36" s="338"/>
+      <c r="F36" s="342" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="301"/>
+      <c r="H36" s="223" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" s="223"/>
+      <c r="J36" s="333"/>
+      <c r="K36" s="334"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6568,25 +6568,25 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="247"/>
+      <c r="A37" s="345"/>
       <c r="B37" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="379" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="357"/>
-      <c r="F37" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="206"/>
-      <c r="H37" s="237" t="s">
+      <c r="D37" s="337" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="225"/>
+      <c r="F37" s="342" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="338"/>
+      <c r="H37" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="206"/>
+      <c r="I37" s="338"/>
       <c r="J37" s="45"/>
       <c r="K37" s="110"/>
       <c r="L37" s="2"/>
@@ -6608,25 +6608,25 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="248"/>
+      <c r="A38" s="346"/>
       <c r="B38" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="310" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" s="311"/>
-      <c r="F38" s="312" t="s">
-        <v>286</v>
-      </c>
-      <c r="G38" s="380"/>
-      <c r="H38" s="266" t="s">
+      <c r="D38" s="240" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="315"/>
+      <c r="F38" s="316" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" s="394"/>
+      <c r="H38" s="335" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="267"/>
+      <c r="I38" s="336"/>
       <c r="J38" s="101"/>
       <c r="K38" s="113"/>
       <c r="L38" s="2"/>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="39" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="B39" s="256" t="s">
+      <c r="B39" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="238"/>
+      <c r="C39" s="251"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
@@ -6680,7 +6680,7 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="316" t="s">
+      <c r="A40" s="283" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="139" t="s">
@@ -6730,21 +6730,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="317"/>
+      <c r="A41" s="284"/>
       <c r="B41" s="122" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="167" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="388" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="169" t="s">
+      <c r="D41" s="379" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="173"/>
+      <c r="E41" s="380"/>
+      <c r="F41" s="380"/>
+      <c r="G41" s="381"/>
+      <c r="H41" s="377"/>
+      <c r="I41" s="378"/>
       <c r="J41" s="159"/>
       <c r="K41" s="160"/>
       <c r="L41" s="65"/>
@@ -6766,19 +6766,19 @@
       <c r="AB41" s="66"/>
     </row>
     <row r="42" spans="1:28" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="317"/>
+      <c r="A42" s="284"/>
       <c r="B42" s="122" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" s="168"/>
-      <c r="D42" s="174" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="389"/>
+      <c r="D42" s="382" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="178"/>
+      <c r="E42" s="383"/>
+      <c r="F42" s="383"/>
+      <c r="G42" s="384"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="194"/>
       <c r="J42" s="157"/>
       <c r="K42" s="158"/>
       <c r="L42" s="65"/>
@@ -6800,11 +6800,11 @@
       <c r="AB42" s="66"/>
     </row>
     <row r="43" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="223"/>
+      <c r="A43" s="238"/>
       <c r="B43" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="257" t="s">
+      <c r="C43" s="344" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="98" t="s">
@@ -6813,16 +6813,16 @@
       <c r="E43" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="227" t="s">
-        <v>318</v>
-      </c>
-      <c r="G43" s="238"/>
-      <c r="H43" s="361" t="s">
-        <v>234</v>
-      </c>
-      <c r="I43" s="275"/>
-      <c r="J43" s="365"/>
-      <c r="K43" s="366"/>
+      <c r="F43" s="250" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" s="251"/>
+      <c r="H43" s="202" t="s">
+        <v>226</v>
+      </c>
+      <c r="I43" s="203"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="211"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6842,25 +6842,25 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="223"/>
+      <c r="A44" s="238"/>
       <c r="B44" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="247"/>
-      <c r="D44" s="214" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="214"/>
+      <c r="C44" s="345"/>
+      <c r="D44" s="190" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="190"/>
       <c r="F44" s="22" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="207" t="s">
+      <c r="H44" s="254" t="s">
         <v>123</v>
       </c>
-      <c r="I44" s="207"/>
+      <c r="I44" s="254"/>
       <c r="J44" s="22"/>
       <c r="K44" s="115"/>
       <c r="L44" s="2"/>
@@ -6882,15 +6882,15 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="223"/>
+      <c r="A45" s="238"/>
       <c r="B45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="205" t="s">
+      <c r="C45" s="346"/>
+      <c r="D45" s="230" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="225"/>
+      <c r="E45" s="301"/>
       <c r="F45" s="87" t="s">
         <v>80</v>
       </c>
@@ -6903,8 +6903,8 @@
       <c r="I45" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="J45" s="261"/>
-      <c r="K45" s="262"/>
+      <c r="J45" s="349"/>
+      <c r="K45" s="350"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6924,27 +6924,27 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="223"/>
+      <c r="A46" s="238"/>
       <c r="B46" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="258" t="s">
+      <c r="C46" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="309" t="s">
-        <v>310</v>
-      </c>
-      <c r="E46" s="309"/>
+      <c r="D46" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="226"/>
       <c r="F46" s="22" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G46" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="210" t="s">
-        <v>248</v>
-      </c>
-      <c r="K46" s="280"/>
+      <c r="J46" s="191" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" s="212"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6964,23 +6964,23 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="223"/>
+      <c r="A47" s="238"/>
       <c r="B47" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="247"/>
-      <c r="D47" s="214" t="s">
-        <v>243</v>
-      </c>
-      <c r="E47" s="298"/>
-      <c r="F47" s="210" t="s">
+      <c r="C47" s="345"/>
+      <c r="D47" s="190" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="222"/>
+      <c r="F47" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="211"/>
-      <c r="H47" s="210" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="211"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="191" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="192"/>
       <c r="J47" s="121"/>
       <c r="K47" s="127"/>
       <c r="L47" s="2"/>
@@ -7002,25 +7002,25 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="223"/>
+      <c r="A48" s="238"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="247"/>
-      <c r="D48" s="214" t="s">
+      <c r="C48" s="345"/>
+      <c r="D48" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="214"/>
-      <c r="F48" s="210" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="211"/>
-      <c r="H48" s="268" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="211"/>
-      <c r="J48" s="226"/>
-      <c r="K48" s="274"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="191" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="192"/>
+      <c r="H48" s="339" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="192"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="321"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7040,26 +7040,26 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="223"/>
+      <c r="A49" s="238"/>
       <c r="B49" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="247"/>
-      <c r="D49" s="214" t="s">
+      <c r="C49" s="345"/>
+      <c r="D49" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="241"/>
+      <c r="E49" s="234"/>
       <c r="F49" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G49" s="226" t="s">
-        <v>221</v>
-      </c>
-      <c r="H49" s="217"/>
-      <c r="I49" s="269" t="s">
-        <v>263</v>
-      </c>
-      <c r="J49" s="270"/>
+      <c r="G49" s="199" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="206"/>
+      <c r="I49" s="340" t="s">
+        <v>255</v>
+      </c>
+      <c r="J49" s="341"/>
       <c r="K49" s="110"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -7080,13 +7080,13 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="223"/>
+      <c r="A50" s="238"/>
       <c r="B50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="247"/>
-      <c r="D50" s="259"/>
-      <c r="E50" s="260"/>
+      <c r="C50" s="345"/>
+      <c r="D50" s="348"/>
+      <c r="E50" s="276"/>
       <c r="F50" s="31"/>
       <c r="G50" s="136"/>
       <c r="H50" s="137"/>
@@ -7112,24 +7112,24 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="223"/>
+      <c r="A51" s="238"/>
       <c r="B51" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="247"/>
-      <c r="D51" s="362" t="s">
-        <v>237</v>
-      </c>
-      <c r="E51" s="363"/>
-      <c r="F51" s="381" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" s="382"/>
-      <c r="I51" s="415" t="s">
+      <c r="C51" s="345"/>
+      <c r="D51" s="204" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="205"/>
+      <c r="F51" s="291" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="292"/>
+      <c r="I51" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="416"/>
-      <c r="K51" s="414"/>
+      <c r="J51" s="297"/>
+      <c r="K51" s="185"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7149,23 +7149,23 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="223"/>
+      <c r="A52" s="238"/>
       <c r="B52" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="247"/>
-      <c r="D52" s="315" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="242"/>
-      <c r="F52" s="321" t="s">
+      <c r="C52" s="345"/>
+      <c r="D52" s="351" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="352"/>
+      <c r="F52" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="322"/>
-      <c r="H52" s="321" t="s">
+      <c r="G52" s="249"/>
+      <c r="H52" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="322"/>
+      <c r="I52" s="249"/>
       <c r="J52" s="88"/>
       <c r="K52" s="116"/>
       <c r="L52" s="2"/>
@@ -7187,25 +7187,25 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="223"/>
+      <c r="A53" s="238"/>
       <c r="B53" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="247"/>
-      <c r="D53" s="211" t="s">
+      <c r="C53" s="345"/>
+      <c r="D53" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="217"/>
-      <c r="F53" s="226" t="s">
+      <c r="E53" s="206"/>
+      <c r="F53" s="199" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="217"/>
-      <c r="H53" s="226" t="s">
-        <v>240</v>
-      </c>
-      <c r="I53" s="217"/>
-      <c r="J53" s="276"/>
-      <c r="K53" s="277"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="199" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53" s="206"/>
+      <c r="J53" s="322"/>
+      <c r="K53" s="323"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7225,19 +7225,19 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="223"/>
+      <c r="A54" s="238"/>
       <c r="B54" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="248"/>
-      <c r="D54" s="211" t="s">
+      <c r="C54" s="346"/>
+      <c r="D54" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="217"/>
-      <c r="H54" s="226" t="s">
+      <c r="E54" s="206"/>
+      <c r="H54" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="I54" s="217"/>
+      <c r="I54" s="206"/>
       <c r="J54" s="44"/>
       <c r="K54" s="110"/>
       <c r="L54" s="2"/>
@@ -7259,25 +7259,25 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="223"/>
+      <c r="A55" s="238"/>
       <c r="B55" s="96" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="226" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="217"/>
-      <c r="F55" s="226" t="s">
-        <v>288</v>
-      </c>
-      <c r="G55" s="217"/>
-      <c r="H55" s="226" t="s">
-        <v>273</v>
-      </c>
-      <c r="I55" s="217"/>
+      <c r="D55" s="199" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="206"/>
+      <c r="F55" s="199" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" s="206"/>
+      <c r="H55" s="199" t="s">
+        <v>265</v>
+      </c>
+      <c r="I55" s="206"/>
       <c r="J55" s="132"/>
       <c r="K55" s="110"/>
       <c r="L55" s="2"/>
@@ -7299,28 +7299,28 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="224"/>
+      <c r="A56" s="239"/>
       <c r="B56" s="97" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="313" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="314"/>
+      <c r="D56" s="207" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="208"/>
       <c r="F56" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="281" t="s">
-        <v>261</v>
-      </c>
-      <c r="H56" s="282"/>
-      <c r="I56" s="343" t="s">
-        <v>323</v>
-      </c>
-      <c r="J56" s="343"/>
+      <c r="G56" s="326" t="s">
+        <v>253</v>
+      </c>
+      <c r="H56" s="327"/>
+      <c r="I56" s="186" t="s">
+        <v>310</v>
+      </c>
+      <c r="J56" s="186"/>
       <c r="K56" s="117"/>
       <c r="L56" s="5"/>
       <c r="M56" s="2"/>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="57" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33"/>
-      <c r="B57" s="256" t="s">
+      <c r="B57" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="238"/>
+      <c r="C57" s="251"/>
       <c r="D57" s="25"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -7373,7 +7373,7 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="329" t="s">
+      <c r="A58" s="272" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="71" t="s">
@@ -7423,21 +7423,21 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="330"/>
+      <c r="A59" s="273"/>
       <c r="B59" s="72" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C59" s="149"/>
-      <c r="D59" s="367" t="s">
+      <c r="D59" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="368"/>
-      <c r="F59" s="368"/>
-      <c r="G59" s="369"/>
-      <c r="H59" s="226" t="s">
-        <v>272</v>
-      </c>
-      <c r="I59" s="217"/>
+      <c r="E59" s="217"/>
+      <c r="F59" s="217"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="199" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="206"/>
       <c r="J59" s="150"/>
       <c r="K59" s="151"/>
       <c r="L59" s="65"/>
@@ -7459,19 +7459,19 @@
       <c r="AB59" s="66"/>
     </row>
     <row r="60" spans="1:28" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="330"/>
+      <c r="A60" s="273"/>
       <c r="B60" s="72"/>
       <c r="C60" s="149"/>
-      <c r="D60" s="179" t="s">
+      <c r="D60" s="395" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="180"/>
-      <c r="F60" s="180"/>
-      <c r="G60" s="181"/>
-      <c r="H60" s="204" t="s">
-        <v>287</v>
-      </c>
-      <c r="I60" s="212"/>
+      <c r="E60" s="396"/>
+      <c r="F60" s="396"/>
+      <c r="G60" s="397"/>
+      <c r="H60" s="285" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" s="286"/>
       <c r="J60" s="156"/>
       <c r="K60" s="151"/>
       <c r="L60" s="65"/>
@@ -7493,25 +7493,25 @@
       <c r="AB60" s="66"/>
     </row>
     <row r="61" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="331"/>
+      <c r="A61" s="274"/>
       <c r="B61" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="319" t="s">
+      <c r="C61" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="286" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="287"/>
-      <c r="F61" s="209" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="275"/>
-      <c r="H61" s="209" t="s">
-        <v>205</v>
-      </c>
-      <c r="I61" s="275"/>
+      <c r="D61" s="278" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="279"/>
+      <c r="F61" s="293" t="s">
+        <v>209</v>
+      </c>
+      <c r="G61" s="203"/>
+      <c r="H61" s="293" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="203"/>
       <c r="J61" s="11"/>
       <c r="K61" s="148"/>
       <c r="L61" s="2"/>
@@ -7533,26 +7533,26 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="331"/>
+      <c r="A62" s="274"/>
       <c r="B62" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="217"/>
-      <c r="D62" s="226" t="s">
+      <c r="C62" s="206"/>
+      <c r="D62" s="199" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="217"/>
+      <c r="E62" s="206"/>
       <c r="F62" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="226" t="s">
-        <v>238</v>
-      </c>
-      <c r="H62" s="217"/>
-      <c r="I62" s="323" t="s">
-        <v>311</v>
-      </c>
-      <c r="J62" s="218"/>
+      <c r="G62" s="199" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62" s="206"/>
+      <c r="I62" s="195" t="s">
+        <v>299</v>
+      </c>
+      <c r="J62" s="196"/>
       <c r="K62" s="129"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7573,11 +7573,11 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="331"/>
+      <c r="A63" s="274"/>
       <c r="B63" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="217"/>
+      <c r="C63" s="206"/>
       <c r="D63" s="22" t="s">
         <v>62</v>
       </c>
@@ -7593,10 +7593,10 @@
       <c r="H63" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I63" s="226" t="s">
-        <v>268</v>
-      </c>
-      <c r="J63" s="217"/>
+      <c r="I63" s="199" t="s">
+        <v>260</v>
+      </c>
+      <c r="J63" s="206"/>
       <c r="K63" s="110"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7617,11 +7617,11 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="63" x14ac:dyDescent="0.25">
-      <c r="A64" s="331"/>
+      <c r="A64" s="274"/>
       <c r="B64" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="320" t="s">
+      <c r="C64" s="290" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="22" t="s">
@@ -7636,14 +7636,14 @@
       <c r="G64" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H64" s="210" t="s">
-        <v>319</v>
-      </c>
-      <c r="I64" s="211"/>
-      <c r="J64" s="210" t="s">
-        <v>245</v>
-      </c>
-      <c r="K64" s="280"/>
+      <c r="H64" s="191" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64" s="192"/>
+      <c r="J64" s="191" t="s">
+        <v>237</v>
+      </c>
+      <c r="K64" s="212"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7663,23 +7663,23 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="331"/>
+      <c r="A65" s="274"/>
       <c r="B65" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="217"/>
-      <c r="D65" s="327" t="s">
+      <c r="C65" s="206"/>
+      <c r="D65" s="269" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="328"/>
-      <c r="F65" s="210" t="s">
-        <v>170</v>
-      </c>
-      <c r="G65" s="211"/>
-      <c r="H65" s="226" t="s">
+      <c r="E65" s="270"/>
+      <c r="F65" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="192"/>
+      <c r="H65" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="I65" s="217"/>
+      <c r="I65" s="206"/>
       <c r="J65" s="134"/>
       <c r="K65" s="142"/>
       <c r="L65" s="2"/>
@@ -7701,29 +7701,29 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="331"/>
+      <c r="A66" s="274"/>
       <c r="B66" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="217"/>
-      <c r="D66" s="210" t="s">
-        <v>282</v>
-      </c>
-      <c r="E66" s="211"/>
+      <c r="C66" s="206"/>
+      <c r="D66" s="191" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" s="192"/>
       <c r="F66" s="22" t="s">
         <v>118</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="210" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="211"/>
-      <c r="J66" s="348" t="s">
-        <v>249</v>
-      </c>
-      <c r="K66" s="349"/>
+      <c r="H66" s="191" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="192"/>
+      <c r="J66" s="252" t="s">
+        <v>241</v>
+      </c>
+      <c r="K66" s="253"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7743,29 +7743,29 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="331"/>
+      <c r="A67" s="274"/>
       <c r="B67" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="217"/>
+      <c r="C67" s="206"/>
       <c r="D67" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="226" t="s">
+      <c r="F67" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="217"/>
-      <c r="H67" s="269" t="s">
-        <v>301</v>
-      </c>
-      <c r="I67" s="383"/>
-      <c r="J67" s="358" t="s">
-        <v>193</v>
-      </c>
-      <c r="K67" s="359"/>
+      <c r="G67" s="206"/>
+      <c r="H67" s="340" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="400"/>
+      <c r="J67" s="294" t="s">
+        <v>187</v>
+      </c>
+      <c r="K67" s="295"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7785,29 +7785,29 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="331"/>
+      <c r="A68" s="274"/>
       <c r="B68" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="217"/>
-      <c r="D68" s="286" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" s="287"/>
+      <c r="C68" s="206"/>
+      <c r="D68" s="278" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="279"/>
       <c r="F68" s="22" t="s">
         <v>96</v>
       </c>
       <c r="G68" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H68" s="210" t="s">
+      <c r="H68" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="I68" s="211"/>
-      <c r="J68" s="226" t="s">
-        <v>191</v>
-      </c>
-      <c r="K68" s="324"/>
+      <c r="I68" s="192"/>
+      <c r="J68" s="199" t="s">
+        <v>185</v>
+      </c>
+      <c r="K68" s="271"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -7827,23 +7827,23 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="331"/>
+      <c r="A69" s="274"/>
       <c r="B69" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="217"/>
-      <c r="D69" s="210" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="211"/>
-      <c r="F69" s="278" t="s">
+      <c r="C69" s="206"/>
+      <c r="D69" s="191" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="192"/>
+      <c r="F69" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="G69" s="279"/>
-      <c r="H69" s="278" t="s">
+      <c r="G69" s="325"/>
+      <c r="H69" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="279"/>
+      <c r="I69" s="325"/>
       <c r="J69" s="134"/>
       <c r="K69" s="142"/>
       <c r="L69" s="2"/>
@@ -7865,27 +7865,27 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="331"/>
+      <c r="A70" s="274"/>
       <c r="B70" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="333" t="s">
+      <c r="C70" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="226" t="s">
+      <c r="D70" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="217"/>
-      <c r="F70" s="226" t="s">
-        <v>289</v>
-      </c>
-      <c r="G70" s="217"/>
-      <c r="H70" s="184" t="s">
-        <v>204</v>
-      </c>
-      <c r="I70" s="185"/>
-      <c r="J70" s="353"/>
-      <c r="K70" s="354"/>
+      <c r="E70" s="206"/>
+      <c r="F70" s="199" t="s">
+        <v>281</v>
+      </c>
+      <c r="G70" s="206"/>
+      <c r="H70" s="401" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="402"/>
+      <c r="J70" s="258"/>
+      <c r="K70" s="259"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7905,25 +7905,25 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="331"/>
+      <c r="A71" s="274"/>
       <c r="B71" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="217"/>
-      <c r="D71" s="226" t="s">
+      <c r="C71" s="206"/>
+      <c r="D71" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="217"/>
-      <c r="F71" s="226" t="s">
+      <c r="E71" s="206"/>
+      <c r="F71" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="G71" s="217"/>
-      <c r="H71" s="286" t="s">
-        <v>190</v>
-      </c>
-      <c r="I71" s="287"/>
-      <c r="J71" s="346"/>
-      <c r="K71" s="347"/>
+      <c r="G71" s="206"/>
+      <c r="H71" s="278" t="s">
+        <v>184</v>
+      </c>
+      <c r="I71" s="279"/>
+      <c r="J71" s="246"/>
+      <c r="K71" s="247"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7943,25 +7943,25 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="331"/>
+      <c r="A72" s="274"/>
       <c r="B72" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="226" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="217"/>
-      <c r="F72" s="226" t="s">
-        <v>226</v>
-      </c>
-      <c r="G72" s="217"/>
-      <c r="H72" s="226" t="s">
-        <v>232</v>
-      </c>
-      <c r="I72" s="217"/>
+      <c r="D72" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="206"/>
+      <c r="F72" s="199" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="206"/>
+      <c r="H72" s="199" t="s">
+        <v>224</v>
+      </c>
+      <c r="I72" s="206"/>
       <c r="J72" s="46"/>
       <c r="K72" s="110"/>
       <c r="L72" s="2"/>
@@ -7983,7 +7983,7 @@
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="332"/>
+      <c r="A73" s="275"/>
       <c r="B73" s="74" t="s">
         <v>24</v>
       </c>
@@ -7996,10 +7996,10 @@
       <c r="E73" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F73" s="385" t="s">
-        <v>320</v>
-      </c>
-      <c r="G73" s="344"/>
+      <c r="F73" s="242" t="s">
+        <v>307</v>
+      </c>
+      <c r="G73" s="243"/>
       <c r="H73" s="101" t="s">
         <v>121</v>
       </c>
@@ -8028,10 +8028,10 @@
     </row>
     <row r="74" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="76"/>
-      <c r="B74" s="288" t="s">
+      <c r="B74" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="289"/>
+      <c r="C74" s="404"/>
       <c r="D74" s="77"/>
       <c r="E74" s="78"/>
       <c r="F74" s="78"/>
@@ -8059,7 +8059,7 @@
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="325" t="s">
+      <c r="A75" s="266" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="13" t="s">
@@ -8078,7 +8078,7 @@
       <c r="G75" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H75" s="351" t="s">
+      <c r="H75" s="255" t="s">
         <v>43</v>
       </c>
       <c r="I75" s="81" t="s">
@@ -8109,26 +8109,26 @@
       <c r="AB75" s="3"/>
     </row>
     <row r="76" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="326"/>
+      <c r="A76" s="267"/>
       <c r="B76" s="166" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="265" t="s">
+      <c r="D76" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="265"/>
-      <c r="F76" s="265" t="s">
+      <c r="E76" s="223"/>
+      <c r="F76" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="G76" s="253"/>
-      <c r="H76" s="352"/>
-      <c r="I76" s="265" t="s">
+      <c r="G76" s="228"/>
+      <c r="H76" s="256"/>
+      <c r="I76" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="J76" s="265"/>
+      <c r="J76" s="223"/>
       <c r="K76" s="92"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -8149,24 +8149,24 @@
       <c r="AB76" s="66"/>
     </row>
     <row r="77" spans="1:28" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="326"/>
+      <c r="A77" s="267"/>
       <c r="B77" s="37" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C77" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="182" t="s">
+      <c r="D77" s="398" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="183"/>
-      <c r="F77" s="183"/>
-      <c r="G77" s="183"/>
-      <c r="H77" s="352"/>
-      <c r="I77" s="210" t="s">
+      <c r="E77" s="399"/>
+      <c r="F77" s="399"/>
+      <c r="G77" s="399"/>
+      <c r="H77" s="256"/>
+      <c r="I77" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="J77" s="211"/>
+      <c r="J77" s="192"/>
       <c r="K77" s="165"/>
       <c r="L77" s="65"/>
       <c r="M77" s="65"/>
@@ -8187,26 +8187,26 @@
       <c r="AB77" s="66"/>
     </row>
     <row r="78" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="223"/>
+      <c r="A78" s="238"/>
       <c r="B78" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="222" t="s">
+      <c r="C78" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="338" t="s">
+      <c r="D78" s="227" t="s">
         <v>98</v>
       </c>
-      <c r="E78" s="265"/>
-      <c r="F78" s="337" t="s">
-        <v>283</v>
-      </c>
-      <c r="G78" s="298"/>
-      <c r="H78" s="352"/>
-      <c r="I78" s="338" t="s">
-        <v>300</v>
-      </c>
-      <c r="J78" s="265"/>
+      <c r="E78" s="223"/>
+      <c r="F78" s="233" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="222"/>
+      <c r="H78" s="256"/>
+      <c r="I78" s="227" t="s">
+        <v>288</v>
+      </c>
+      <c r="J78" s="223"/>
       <c r="K78" s="119"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -8227,24 +8227,24 @@
       <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="223"/>
+      <c r="A79" s="238"/>
       <c r="B79" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="223"/>
-      <c r="D79" s="205" t="s">
-        <v>256</v>
-      </c>
-      <c r="E79" s="341"/>
-      <c r="F79" s="226" t="s">
+      <c r="C79" s="238"/>
+      <c r="D79" s="230" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="231"/>
+      <c r="F79" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="G79" s="210"/>
-      <c r="H79" s="352"/>
-      <c r="I79" s="202" t="s">
-        <v>280</v>
-      </c>
-      <c r="J79" s="202"/>
+      <c r="G79" s="191"/>
+      <c r="H79" s="256"/>
+      <c r="I79" s="232" t="s">
+        <v>272</v>
+      </c>
+      <c r="J79" s="232"/>
       <c r="K79" s="110"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -8265,26 +8265,26 @@
       <c r="AB79" s="3"/>
     </row>
     <row r="80" spans="1:28" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="223"/>
+      <c r="A80" s="238"/>
       <c r="B80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="224"/>
-      <c r="D80" s="205" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="341"/>
+      <c r="C80" s="239"/>
+      <c r="D80" s="230" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="231"/>
       <c r="F80" s="42" t="s">
         <v>61</v>
       </c>
       <c r="G80" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="H80" s="352"/>
-      <c r="I80" s="350" t="s">
-        <v>161</v>
-      </c>
-      <c r="J80" s="298"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="221" t="s">
+        <v>156</v>
+      </c>
+      <c r="J80" s="222"/>
       <c r="K80" s="110"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -8305,26 +8305,26 @@
       <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="223"/>
+      <c r="A81" s="238"/>
       <c r="B81" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="249" t="s">
+      <c r="C81" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="196" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="335"/>
-      <c r="F81" s="210" t="s">
+      <c r="D81" s="280" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="281"/>
+      <c r="F81" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="G81" s="273"/>
-      <c r="H81" s="352"/>
-      <c r="I81" s="350" t="s">
+      <c r="G81" s="229"/>
+      <c r="H81" s="256"/>
+      <c r="I81" s="221" t="s">
         <v>149</v>
       </c>
-      <c r="J81" s="298"/>
+      <c r="J81" s="222"/>
       <c r="K81" s="110"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -8345,24 +8345,24 @@
       <c r="AB81" s="3"/>
     </row>
     <row r="82" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="223"/>
+      <c r="A82" s="238"/>
       <c r="B82" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="223"/>
-      <c r="D82" s="386" t="s">
-        <v>321</v>
-      </c>
-      <c r="E82" s="357"/>
-      <c r="F82" s="336" t="s">
+      <c r="C82" s="238"/>
+      <c r="D82" s="224" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="225"/>
+      <c r="F82" s="282" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="300"/>
-      <c r="H82" s="352"/>
-      <c r="I82" s="350" t="s">
-        <v>271</v>
-      </c>
-      <c r="J82" s="298"/>
+      <c r="G82" s="220"/>
+      <c r="H82" s="256"/>
+      <c r="I82" s="221" t="s">
+        <v>263</v>
+      </c>
+      <c r="J82" s="222"/>
       <c r="K82" s="110"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -8383,24 +8383,24 @@
       <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="223"/>
+      <c r="A83" s="238"/>
       <c r="B83" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="223"/>
-      <c r="D83" s="214" t="s">
+      <c r="C83" s="238"/>
+      <c r="D83" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="300"/>
-      <c r="F83" s="345" t="s">
-        <v>308</v>
-      </c>
-      <c r="G83" s="390"/>
-      <c r="H83" s="352"/>
-      <c r="I83" s="350" t="s">
-        <v>187</v>
-      </c>
-      <c r="J83" s="298"/>
+      <c r="E83" s="220"/>
+      <c r="F83" s="235" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" s="236"/>
+      <c r="H83" s="256"/>
+      <c r="I83" s="221" t="s">
+        <v>181</v>
+      </c>
+      <c r="J83" s="222"/>
       <c r="K83" s="108"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -8421,26 +8421,26 @@
       <c r="AB83" s="3"/>
     </row>
     <row r="84" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="223"/>
+      <c r="A84" s="238"/>
       <c r="B84" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="223"/>
+      <c r="C84" s="238"/>
       <c r="D84" s="84" t="s">
         <v>66</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F84" s="338" t="s">
+      <c r="F84" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="G84" s="253"/>
-      <c r="H84" s="352"/>
-      <c r="I84" s="350" t="s">
-        <v>214</v>
-      </c>
-      <c r="J84" s="298"/>
+      <c r="G84" s="228"/>
+      <c r="H84" s="256"/>
+      <c r="I84" s="221" t="s">
+        <v>208</v>
+      </c>
+      <c r="J84" s="222"/>
       <c r="K84" s="110"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -8461,26 +8461,26 @@
       <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="223"/>
+      <c r="A85" s="238"/>
       <c r="B85" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="223"/>
-      <c r="D85" s="388" t="s">
-        <v>306</v>
-      </c>
-      <c r="E85" s="389" t="s">
-        <v>307</v>
-      </c>
-      <c r="F85" s="337" t="s">
-        <v>275</v>
-      </c>
-      <c r="G85" s="298"/>
-      <c r="H85" s="352"/>
-      <c r="I85" s="309" t="s">
-        <v>322</v>
-      </c>
-      <c r="J85" s="298"/>
+      <c r="C85" s="238"/>
+      <c r="D85" s="167" t="s">
+        <v>294</v>
+      </c>
+      <c r="E85" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="F85" s="233" t="s">
+        <v>267</v>
+      </c>
+      <c r="G85" s="222"/>
+      <c r="H85" s="256"/>
+      <c r="I85" s="226" t="s">
+        <v>309</v>
+      </c>
+      <c r="J85" s="222"/>
       <c r="K85" s="110"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -8501,22 +8501,22 @@
       <c r="AB85" s="3"/>
     </row>
     <row r="86" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="223"/>
+      <c r="A86" s="238"/>
       <c r="B86" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="223"/>
-      <c r="D86" s="214"/>
-      <c r="E86" s="241"/>
-      <c r="F86" s="339" t="s">
+      <c r="C86" s="238"/>
+      <c r="D86" s="190"/>
+      <c r="E86" s="234"/>
+      <c r="F86" s="264" t="s">
         <v>51</v>
       </c>
-      <c r="G86" s="340"/>
-      <c r="H86" s="352"/>
-      <c r="I86" s="339" t="s">
+      <c r="G86" s="265"/>
+      <c r="H86" s="256"/>
+      <c r="I86" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="J86" s="340"/>
+      <c r="J86" s="265"/>
       <c r="K86" s="120"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -8537,24 +8537,24 @@
       <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="223"/>
+      <c r="A87" s="238"/>
       <c r="B87" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="223"/>
-      <c r="D87" s="214" t="s">
-        <v>169</v>
-      </c>
-      <c r="E87" s="260"/>
-      <c r="F87" s="337" t="s">
-        <v>302</v>
-      </c>
-      <c r="G87" s="298"/>
-      <c r="H87" s="352"/>
-      <c r="I87" s="214" t="s">
-        <v>250</v>
-      </c>
-      <c r="J87" s="298"/>
+      <c r="C87" s="238"/>
+      <c r="D87" s="190" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="276"/>
+      <c r="F87" s="233" t="s">
+        <v>290</v>
+      </c>
+      <c r="G87" s="222"/>
+      <c r="H87" s="256"/>
+      <c r="I87" s="190" t="s">
+        <v>242</v>
+      </c>
+      <c r="J87" s="222"/>
       <c r="K87" s="110"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -8575,16 +8575,16 @@
       <c r="AB87" s="3"/>
     </row>
     <row r="88" spans="1:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="223"/>
+      <c r="A88" s="238"/>
       <c r="B88" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="223"/>
+      <c r="C88" s="238"/>
       <c r="D88" s="20"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="38"/>
-      <c r="H88" s="352"/>
+      <c r="H88" s="256"/>
       <c r="I88" s="39"/>
       <c r="J88" s="47"/>
       <c r="K88" s="110"/>
@@ -8607,24 +8607,24 @@
       <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="223"/>
+      <c r="A89" s="238"/>
       <c r="B89" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="224"/>
-      <c r="D89" s="214" t="s">
-        <v>242</v>
-      </c>
-      <c r="E89" s="260"/>
-      <c r="F89" s="337" t="s">
-        <v>304</v>
-      </c>
-      <c r="G89" s="298"/>
-      <c r="H89" s="352"/>
-      <c r="I89" s="229" t="s">
-        <v>195</v>
-      </c>
-      <c r="J89" s="300"/>
+      <c r="C89" s="239"/>
+      <c r="D89" s="190" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="276"/>
+      <c r="F89" s="233" t="s">
+        <v>292</v>
+      </c>
+      <c r="G89" s="222"/>
+      <c r="H89" s="256"/>
+      <c r="I89" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="J89" s="220"/>
       <c r="K89" s="110"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -8645,26 +8645,26 @@
       <c r="AB89" s="3"/>
     </row>
     <row r="90" spans="1:28" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="223"/>
+      <c r="A90" s="238"/>
       <c r="B90" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="207" t="s">
-        <v>206</v>
-      </c>
-      <c r="E90" s="296"/>
-      <c r="F90" s="226" t="s">
-        <v>303</v>
-      </c>
-      <c r="G90" s="391"/>
-      <c r="H90" s="352"/>
-      <c r="I90" s="387" t="s">
-        <v>305</v>
-      </c>
-      <c r="J90" s="334"/>
+      <c r="D90" s="254" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="268"/>
+      <c r="F90" s="199" t="s">
+        <v>291</v>
+      </c>
+      <c r="G90" s="332"/>
+      <c r="H90" s="256"/>
+      <c r="I90" s="244" t="s">
+        <v>293</v>
+      </c>
+      <c r="J90" s="245"/>
       <c r="K90" s="110"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -8685,26 +8685,26 @@
       <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="224"/>
+      <c r="A91" s="239"/>
       <c r="B91" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="E91" s="272"/>
-      <c r="F91" s="343" t="s">
-        <v>257</v>
-      </c>
-      <c r="G91" s="392"/>
-      <c r="H91" s="393"/>
-      <c r="I91" s="310" t="s">
-        <v>208</v>
-      </c>
-      <c r="J91" s="342"/>
+      <c r="D91" s="318" t="s">
+        <v>252</v>
+      </c>
+      <c r="E91" s="319"/>
+      <c r="F91" s="186" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="187"/>
+      <c r="H91" s="257"/>
+      <c r="I91" s="240" t="s">
+        <v>202</v>
+      </c>
+      <c r="J91" s="241"/>
       <c r="K91" s="111"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -36236,6 +36236,223 @@
     </row>
   </sheetData>
   <mergeCells count="241">
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A23:A38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A2:E4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A75:A91"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="C81:C89"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="H75:H91"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F83:G83"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="D44:E44"/>
@@ -36260,223 +36477,6 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="D59:G59"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:C89"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="H75:H91"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A75:A91"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A40:A56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="A2:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A23:A38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="H72:I72"/>
   </mergeCells>
   <pageMargins left="0.216187305364964" right="0.14099172089019399" top="0.26" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -36489,7 +36489,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36503,17 +36503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="411" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="377"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="413"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="405" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="152" t="s">
@@ -36531,34 +36531,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="371"/>
-      <c r="B3" s="394" t="s">
+      <c r="A3" s="406"/>
+      <c r="B3" s="169" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="124"/>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="371"/>
-      <c r="B4" s="394" t="s">
+      <c r="A4" s="406"/>
+      <c r="B4" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="124"/>
       <c r="D4" s="10" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="398"/>
+        <v>311</v>
+      </c>
+      <c r="F4" s="173"/>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="371"/>
-      <c r="B5" s="394" t="s">
+      <c r="A5" s="406"/>
+      <c r="B5" s="169" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="124"/>
@@ -36566,155 +36566,155 @@
         <v>147</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="146" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A6" s="407"/>
+      <c r="B6" s="169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="409"/>
+      <c r="D6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="146" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A6" s="372"/>
-      <c r="B6" s="394" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="373"/>
-      <c r="D6" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="146" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A7" s="372"/>
-      <c r="B7" s="394" t="s">
+      <c r="A7" s="407"/>
+      <c r="B7" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="374"/>
+      <c r="C7" s="410"/>
       <c r="D7" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="397"/>
+        <v>151</v>
+      </c>
+      <c r="F7" s="172"/>
     </row>
     <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A8" s="372"/>
-      <c r="B8" s="394" t="s">
+      <c r="A8" s="407"/>
+      <c r="B8" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="374"/>
+      <c r="C8" s="410"/>
       <c r="D8" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="408" t="s">
-        <v>167</v>
+        <v>157</v>
+      </c>
+      <c r="F8" s="183" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="372"/>
-      <c r="B9" s="394" t="s">
+      <c r="A9" s="407"/>
+      <c r="B9" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="374"/>
+      <c r="C9" s="410"/>
       <c r="D9" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="183" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="407"/>
+      <c r="B10" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="408" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="372"/>
-      <c r="B10" s="394" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="374"/>
+      <c r="C10" s="410"/>
       <c r="D10" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="372"/>
-      <c r="B11" s="394" t="s">
-        <v>312</v>
+      <c r="A11" s="407"/>
+      <c r="B11" s="169" t="s">
+        <v>300</v>
       </c>
       <c r="C11" s="153"/>
       <c r="E11" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="372"/>
-      <c r="B12" s="394" t="s">
+      <c r="A12" s="407"/>
+      <c r="B12" s="169" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="153"/>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="408" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="F12" s="183" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="372"/>
-      <c r="B13" s="394" t="s">
+      <c r="A13" s="407"/>
+      <c r="B13" s="169" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="395"/>
+      <c r="D13" s="170"/>
       <c r="E13" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="412"/>
-      <c r="B14" s="394" t="s">
+      <c r="A14" s="408"/>
+      <c r="B14" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="413"/>
-      <c r="D14" s="402"/>
-      <c r="E14" s="402" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="403"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="178"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="409" t="s">
+      <c r="A15" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="410"/>
-      <c r="C15" s="410"/>
-      <c r="D15" s="410"/>
-      <c r="E15" s="410"/>
-      <c r="F15" s="411"/>
+      <c r="B15" s="415"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="416"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="370" t="s">
+      <c r="A16" s="405" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="152" t="s">
@@ -36732,137 +36732,137 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="371"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="134"/>
       <c r="E17" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="396"/>
+        <v>313</v>
+      </c>
+      <c r="F17" s="171"/>
     </row>
     <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="371"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="374"/>
+      <c r="C18" s="410"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="398"/>
+        <v>172</v>
+      </c>
+      <c r="F18" s="173"/>
     </row>
     <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="371"/>
+      <c r="A19" s="406"/>
       <c r="B19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="374"/>
+      <c r="C19" s="410"/>
       <c r="D19" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F19" s="146" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A20" s="371"/>
+      <c r="A20" s="406"/>
       <c r="B20" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="374"/>
+      <c r="C20" s="410"/>
       <c r="D20" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A21" s="371"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="374"/>
+      <c r="C21" s="410"/>
       <c r="D21" s="10" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F21" s="146" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="371"/>
+      <c r="A22" s="406"/>
       <c r="B22" s="124" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="124"/>
       <c r="D22" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F22" s="146" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78" x14ac:dyDescent="0.25">
-      <c r="A23" s="371"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="124" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="124"/>
       <c r="D23" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="155" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="155" t="s">
-        <v>192</v>
-      </c>
       <c r="F23" s="146" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="405"/>
-      <c r="D24" s="406" t="s">
-        <v>314</v>
-      </c>
-      <c r="E24" s="406" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="407"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="181" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="182"/>
     </row>
     <row r="25" spans="1:6" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="399"/>
-      <c r="B25" s="400" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="400"/>
-      <c r="D25" s="401" t="s">
-        <v>313</v>
-      </c>
-      <c r="E25" s="402" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" s="403" t="s">
-        <v>292</v>
+      <c r="A25" s="174"/>
+      <c r="B25" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="177" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="178" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
